--- a/Logs/ModelStatistics_04-2024.xlsx
+++ b/Logs/ModelStatistics_04-2024.xlsx
@@ -3139,7 +3139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AK61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6724,6 +6724,3396 @@
         <v>0.1196569115234618</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>150</v>
+      </c>
+      <c r="D32" t="n">
+        <v>13</v>
+      </c>
+      <c r="E32" t="n">
+        <v>12</v>
+      </c>
+      <c r="F32" t="n">
+        <v>150</v>
+      </c>
+      <c r="G32" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H32" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.3545565354556535</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.3145479314547932</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9579837957983796</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.00516240051624</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.2870004092211158</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5585626771509554</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.2565821911054137</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.3078111996195458</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.2850029874526986</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.2542869092429946</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.2092492149586069</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.2797909407665505</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.2676737160120846</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.3545565354556535</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.3391974749620864</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.3637693123023797</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.3145479314547932</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.3021593570423439</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.3238684864749717</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.9858776361332687</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.9839728890099751</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.9854987624010469</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.9837008942879621</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.1753825463130961</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.2606212446401409</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.2420723124750055</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.2012425656450529</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.1206813309266997</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>50</v>
+      </c>
+      <c r="B33" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" t="n">
+        <v>150</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12</v>
+      </c>
+      <c r="F33" t="n">
+        <v>150</v>
+      </c>
+      <c r="G33" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H33" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.3574962357496236</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3198537319853732</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9412059941205995</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9911808991180899</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.2948016415868673</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.5678614208053073</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.2582535651494433</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.3453596012342748</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.2165935380933386</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.2408789386401327</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.5398671096345515</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.2081620669406929</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.3218914185639229</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.1817087845968712</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.3574962357496236</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.338070488059514</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.3680698961591991</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.3198537319853732</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.2963929888286317</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.3331131942204167</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.9836815270474328</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.9766532157984606</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.9833947966583783</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.9760284125929439</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.1748231810041467</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.2593638512380261</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.244140727888587</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.2015834827580967</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.1200887571111419</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>50</v>
+      </c>
+      <c r="B34" t="n">
+        <v>30</v>
+      </c>
+      <c r="C34" t="n">
+        <v>150</v>
+      </c>
+      <c r="D34" t="n">
+        <v>15</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12</v>
+      </c>
+      <c r="F34" t="n">
+        <v>150</v>
+      </c>
+      <c r="G34" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H34" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.3545804354580435</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3164838316483832</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9425204942520494</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.9822900982290098</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.2897158322056834</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.6029601029601029</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.2370443349753694</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.3696244520791375</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.1224407868325973</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.2422813036020583</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.5575689991636466</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.2003434459072696</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.3383802816901408</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.1109799291617473</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.3545804354580435</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.3197117576777097</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.3728384159466904</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.3164838316483832</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.2828741684623726</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.3350066476843868</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.9797565572870844</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.9789337946707127</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.9793013234893501</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.9794114084252122</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.1732974081965284</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0.257496947666794</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.243434796692034</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.2038446391636664</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.1219262082809736</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>50</v>
+      </c>
+      <c r="B35" t="n">
+        <v>30</v>
+      </c>
+      <c r="C35" t="n">
+        <v>150</v>
+      </c>
+      <c r="D35" t="n">
+        <v>13</v>
+      </c>
+      <c r="E35" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" t="n">
+        <v>150</v>
+      </c>
+      <c r="G35" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H35" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.3527401352740135</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3167706316770632</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9337491933749194</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9772710977271097</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.246147495872317</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.6185767097966728</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.2307015829587649</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.3865131578947368</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.1250249650489315</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.1951915240423798</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.5654320987654321</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.3658360418923799</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.1228280407429599</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.3527401352740135</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.3154364119471501</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.3733683183442749</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.3167706316770632</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.2814685527386217</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.3375914725609019</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.987461096996439</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.9820436717732028</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.9870073526087542</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.9816712538876716</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.1760814942100116</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.2590932541327399</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.2437585430138087</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.2022762779546864</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.1187904306887337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>50</v>
+      </c>
+      <c r="B36" t="n">
+        <v>30</v>
+      </c>
+      <c r="C36" t="n">
+        <v>150</v>
+      </c>
+      <c r="D36" t="n">
+        <v>12</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12</v>
+      </c>
+      <c r="F36" t="n">
+        <v>150</v>
+      </c>
+      <c r="G36" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H36" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.3552974355297436</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.3094572309457231</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9771276977127697</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.0394350039435</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.3597043525869149</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.5288408716352316</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.2082636497786522</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.3410623447296818</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.2926926926926927</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.3253311258278146</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.4747389218176686</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.1672894509916643</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.2977369165487977</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.2522308149910767</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.3552974355297436</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.3426712721951479</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.3647749489250366</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.3094572309457231</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.2985945186931204</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.3193956090980057</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.9833612984814254</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.9756104733261343</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.9831101481349117</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.9752495909221135</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.1759384731079862</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.2617805178767197</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.2427012160080831</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.2010495028655973</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.1185302901415942</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>50</v>
+      </c>
+      <c r="B37" t="n">
+        <v>30</v>
+      </c>
+      <c r="C37" t="n">
+        <v>150</v>
+      </c>
+      <c r="D37" t="n">
+        <v>11</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12</v>
+      </c>
+      <c r="F37" t="n">
+        <v>150</v>
+      </c>
+      <c r="G37" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H37" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.3577830357783036</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.3123969312396931</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9405606940560695</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.00394350039435</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.2669683257918552</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.5683034890160605</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.2722395630120952</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.3460313716240123</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.228978526991772</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.2251955537258131</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.5213439823740017</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.2278891509433962</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.2880085653104925</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.1990549320732428</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.3577830357783036</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.3380966710789174</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.368145549123806</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.3123969312396931</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.2916322650620898</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.3236008468460583</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.9894364273758164</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.9852107574612867</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.9899722431549366</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.9859835546187166</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.1744868223674286</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.2593454280843132</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.2449137810365531</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.2014576812017515</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.1197962873099554</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>50</v>
+      </c>
+      <c r="B38" t="n">
+        <v>30</v>
+      </c>
+      <c r="C38" t="n">
+        <v>150</v>
+      </c>
+      <c r="D38" t="n">
+        <v>13</v>
+      </c>
+      <c r="E38" t="n">
+        <v>12</v>
+      </c>
+      <c r="F38" t="n">
+        <v>150</v>
+      </c>
+      <c r="G38" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3582371358237136</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.3099591309959131</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9507181950718195</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.02165340216534</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.3067341910758281</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.5346908688841795</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.2762220704458971</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.3504313910885238</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.2310941271118262</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.2479304635761589</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.4925249169435216</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.2212076583210604</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.3010638297872341</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.2024647887323944</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.3582371358237136</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.3422642940268626</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.3659101778999754</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.3099591309959131</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.2936526726170592</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.3189017598882114</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.9853323886438303</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.9799336173362247</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.9856774246100735</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.9803955078320727</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.1734436049598831</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.2599459515056961</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.2442191533923631</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.2031292774357347</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.1192620127063139</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>50</v>
+      </c>
+      <c r="B39" t="n">
+        <v>30</v>
+      </c>
+      <c r="C39" t="n">
+        <v>150</v>
+      </c>
+      <c r="D39" t="n">
+        <v>13</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12</v>
+      </c>
+      <c r="F39" t="n">
+        <v>150</v>
+      </c>
+      <c r="G39" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H39" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.3525728352572835</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.3168423316842331</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.9642694964269496</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01068330106833</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.3043537975552809</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5269262634631318</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.2367854346123728</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.339218009478673</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.3035112080936322</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.2830807046292503</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.495835646862854</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.191365227537923</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.3079901443153819</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.2513761467889908</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.3525728352572835</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.3417885026485786</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.3603140558188542</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.3168423316842331</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.3033029749810726</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.3260735325480187</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.9754978157498814</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.9641133349264503</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.9757189264720239</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.9641983865266377</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.1747475926994138</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.2604546778716822</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.2447174226655462</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.2010428960058867</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.1190374107574869</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>50</v>
+      </c>
+      <c r="B40" t="n">
+        <v>30</v>
+      </c>
+      <c r="C40" t="n">
+        <v>150</v>
+      </c>
+      <c r="D40" t="n">
+        <v>14</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12</v>
+      </c>
+      <c r="F40" t="n">
+        <v>150</v>
+      </c>
+      <c r="G40" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H40" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.3542219354221935</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.3164838316483832</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9392700939270094</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.9875958987595899</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.2187756217545778</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.6058454729854325</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.2244140625</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.3764747522416234</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.2338238258415642</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.1975873544093178</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.5581652390163029</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.18213866039953</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.3393939393939394</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.202332361516035</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.3542219354221936</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.328632763185431</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.3705038407086763</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.3164838316483832</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.2907231717174975</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.3334090689236073</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.9880772289853942</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.9875450775631531</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.9881386133278856</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.9873531782771457</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.1745001828074627</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.2579652397759523</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.2446372737562164</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.2035192249017646</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.1193780787586029</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>50</v>
+      </c>
+      <c r="B41" t="n">
+        <v>30</v>
+      </c>
+      <c r="C41" t="n">
+        <v>150</v>
+      </c>
+      <c r="D41" t="n">
+        <v>15</v>
+      </c>
+      <c r="E41" t="n">
+        <v>12</v>
+      </c>
+      <c r="F41" t="n">
+        <v>150</v>
+      </c>
+      <c r="G41" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H41" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.3519275351927535</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.3244425324442533</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9304270930427093</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.9626442962644296</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.1798767967145791</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.6315351930537595</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.2535031847133758</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.3219701422358058</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.2496998799519808</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.1468762929251138</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5952184666117065</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.2300087234661239</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.3017303532804614</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.2240762812872467</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.3519275351927535</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.3237018997963085</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.3700688056037097</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.3244425324442533</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.2939937692156538</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.3438666367970181</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.986160832050016</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.983030645716251</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.9855868526682533</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.9820127230692338</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.1723132987504272</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.2591256227179485</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.2444767177921165</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.2046183816116338</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.1194659791278575</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>50</v>
+      </c>
+      <c r="B42" t="n">
+        <v>30</v>
+      </c>
+      <c r="C42" t="n">
+        <v>150</v>
+      </c>
+      <c r="D42" t="n">
+        <v>13</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12</v>
+      </c>
+      <c r="F42" t="n">
+        <v>150</v>
+      </c>
+      <c r="G42" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H42" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.3518319351831935</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.3232953323295332</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9563585956358596</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.9825051982505199</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.2458926615553122</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5960600202522324</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.1928171916396821</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.3900237529691211</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.2372111396405293</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.207196029776675</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5646862853970017</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.1601505936866493</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.3739951066060818</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.217606943583385</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.3518319351831935</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.3275080118539849</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.3687849306523942</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.3232953323295332</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.296926938151686</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.3422013862457798</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.9836730497388155</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.9746889331108294</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.9842749000656509</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.9756662094383718</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.1735163046780673</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.2589155402778248</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.2432061595509666</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.2028788880675317</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.1214831074256146</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>50</v>
+      </c>
+      <c r="B43" t="n">
+        <v>30</v>
+      </c>
+      <c r="C43" t="n">
+        <v>150</v>
+      </c>
+      <c r="D43" t="n">
+        <v>12</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12</v>
+      </c>
+      <c r="F43" t="n">
+        <v>150</v>
+      </c>
+      <c r="G43" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H43" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.3562295356229536</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.3139026313902631</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9521760952176095</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.00487560048756</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.2655012291723573</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.5752895752895753</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.2534684640362098</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.3371091445427729</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.2538476913851689</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.2241666666666667</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.531642040702537</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.1996552714737145</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.3068424803991447</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.2253436939629408</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.3562295356229536</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.3367630643553824</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.3671448432030011</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.3139026313902631</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.2947753123997048</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.3262722705059189</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.9839452757873767</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.9745195769996445</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.9848572356382654</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.9758359315204932</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.1749058375435181</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.2601233687582932</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.2449380907209437</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.2014368075099924</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.1185958954672367</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>50</v>
+      </c>
+      <c r="B44" t="n">
+        <v>30</v>
+      </c>
+      <c r="C44" t="n">
+        <v>150</v>
+      </c>
+      <c r="D44" t="n">
+        <v>13</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12</v>
+      </c>
+      <c r="F44" t="n">
+        <v>150</v>
+      </c>
+      <c r="G44" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H44" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.3528835352883535</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.3211443321144332</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9601825960182596</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.99634329963433</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.2691256830601093</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.5830573951434879</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.2313592233009709</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.3496061112437336</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.2301347817340575</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.2393838467943381</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.5407737266907876</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.2045454545454546</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.3158801240096452</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.2111436950146628</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.3528835352883535</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.3316215249342014</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.3658198249065688</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.3211443321144332</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.3007311468601946</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.3337316506878336</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.9805841206680104</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.9776943796353441</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.9804922328394674</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.9776128044112019</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.1734586147296038</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.2588213955006493</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.2468566809991334</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.2011522110754986</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.1197110976950957</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>50</v>
+      </c>
+      <c r="B45" t="n">
+        <v>30</v>
+      </c>
+      <c r="C45" t="n">
+        <v>150</v>
+      </c>
+      <c r="D45" t="n">
+        <v>13</v>
+      </c>
+      <c r="E45" t="n">
+        <v>12</v>
+      </c>
+      <c r="F45" t="n">
+        <v>150</v>
+      </c>
+      <c r="G45" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.3519036351903635</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3140460314046031</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9180707918070792</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.9619989961998996</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.1502554895732634</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6180415212199155</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.3031365673095656</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.360381861575179</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.1531176006314128</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.1342200725513906</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.5630064263760827</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.2587329780935465</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.3285074112375043</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.1274875621890547</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.3519036351903635</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.3115430206763558</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.3737095641384525</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.3140460314046031</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.2755548111880922</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.334548555911382</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.9871385599348853</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.9847457647103721</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.9871259296642751</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.9846211173229096</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.1731714978513478</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.2590065332211176</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.2456027937461749</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.2003366772851747</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.1218824978961724</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>50</v>
+      </c>
+      <c r="B46" t="n">
+        <v>30</v>
+      </c>
+      <c r="C46" t="n">
+        <v>150</v>
+      </c>
+      <c r="D46" t="n">
+        <v>13</v>
+      </c>
+      <c r="E46" t="n">
+        <v>12</v>
+      </c>
+      <c r="F46" t="n">
+        <v>150</v>
+      </c>
+      <c r="G46" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H46" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.3550345355034535</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.3232953323295332</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9555220955522096</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.99813579981358</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.3635739774910788</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.523185577548555</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.2445615061945176</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.3798003523194363</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.1660700079554495</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.3169129720853859</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.4900107991360691</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.1980548187444739</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.3745480838756327</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.1298543689320388</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.3550345355034535</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.3339752929827385</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.3658786878649557</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.3232953323295332</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.2973797031115992</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.3366203156145255</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.9878976005418515</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.9805033424700016</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.9883385789889509</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.9807924904390686</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.1763845003317396</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0.2597733570716403</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0.2434206605085729</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.2019449270172817</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0.1184765550707685</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>50</v>
+      </c>
+      <c r="B47" t="n">
+        <v>30</v>
+      </c>
+      <c r="C47" t="n">
+        <v>150</v>
+      </c>
+      <c r="D47" t="n">
+        <v>13</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12</v>
+      </c>
+      <c r="F47" t="n">
+        <v>150</v>
+      </c>
+      <c r="G47" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H47" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.3522621352262135</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.3233670323367032</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9625247962524797</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.99942639994264</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.2968643023415035</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.5509979857169016</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.2729676787463271</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.278392198834582</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.285171102661597</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.2736668044646548</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.5303415184871578</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.2201514269073966</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.2646239554317549</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.269803454437165</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.3522621352262135</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.3369886507365096</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.360846190377868</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.3233670323367032</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.3092103239177589</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.3332250477888349</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.971735260945081</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.9601905959329928</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.9717897996694376</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.9606324378749739</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.1724796194620579</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0.2594517952689184</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0.2440144830846665</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0.20290934806144</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.1211447541229079</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>50</v>
+      </c>
+      <c r="B48" t="n">
+        <v>30</v>
+      </c>
+      <c r="C48" t="n">
+        <v>150</v>
+      </c>
+      <c r="D48" t="n">
+        <v>15</v>
+      </c>
+      <c r="E48" t="n">
+        <v>12</v>
+      </c>
+      <c r="F48" t="n">
+        <v>150</v>
+      </c>
+      <c r="G48" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H48" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.3551540355154035</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.3159102315910232</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9628115962811596</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.0179250017925</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.2991254441104127</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.5615968877361986</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.2357843137254902</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.3168989343014404</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.3001202886928629</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.5284818751703462</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.1910569105691057</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.2822757111597374</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.2571090047393365</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.3551540355154035</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.3414246207490977</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.3648014399386534</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.3159102315910232</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.2991047477142579</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0.327807059866343</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.9876335334340164</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.981567741945223</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0.9872620456563117</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0.9809525801455181</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0.1743356846345589</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0.2589059740123638</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0.2452729621222811</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0.2034076066810268</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.1180777725497702</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>50</v>
+      </c>
+      <c r="B49" t="n">
+        <v>30</v>
+      </c>
+      <c r="C49" t="n">
+        <v>150</v>
+      </c>
+      <c r="D49" t="n">
+        <v>14</v>
+      </c>
+      <c r="E49" t="n">
+        <v>12</v>
+      </c>
+      <c r="F49" t="n">
+        <v>150</v>
+      </c>
+      <c r="G49" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H49" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.3519514351951435</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3188499318849932</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9642694964269496</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.00623790062379</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.2656078860898138</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.5743717664449371</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.2607212475633529</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.2698243114909781</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.3223304831974548</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.2398676592224979</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.5262290579511123</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.2340425531914894</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.2380119005950297</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.2908318154219793</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.3519514351951435</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.336582343189633</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.362578294021942</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.3188499318849932</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.3034142149246755</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.3291909745410747</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.9822759454804497</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.9802259073685413</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0.9823842941155985</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.9807082706635084</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0.173451461844356</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0.2576901353441863</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0.2462389473124271</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0.2014377411682352</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0.121181714330797</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>30</v>
+      </c>
+      <c r="C50" t="n">
+        <v>150</v>
+      </c>
+      <c r="D50" t="n">
+        <v>13</v>
+      </c>
+      <c r="E50" t="n">
+        <v>12</v>
+      </c>
+      <c r="F50" t="n">
+        <v>150</v>
+      </c>
+      <c r="G50" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H50" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.3544370354437035</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3215028321502832</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9579359957935996</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.00595110059511</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.2868830106353968</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.5868679385071309</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.2308515815085158</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.297548202808855</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.3014705882352941</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.2558626465661641</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.5451322607035725</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.1947165330958741</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.2688433483848559</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.2700729927007299</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.3544370354437035</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.33841040546521</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.3661571763144126</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.3215028321502832</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.3032705908595318</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.334014713254967</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.9816972153315501</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.9743556492607856</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0.9823428395378002</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0.9757132925867581</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0.1741557265404381</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0.2566936474235736</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0.2457417776438657</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0.2024352758372478</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.120973572554864</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>30</v>
+      </c>
+      <c r="C51" t="n">
+        <v>150</v>
+      </c>
+      <c r="D51" t="n">
+        <v>14</v>
+      </c>
+      <c r="E51" t="n">
+        <v>12</v>
+      </c>
+      <c r="F51" t="n">
+        <v>150</v>
+      </c>
+      <c r="G51" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H51" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.3542458354245835</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.3144045314404532</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9421858942185894</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.00114720011472</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.2386536073941233</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.5960559207480789</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.2158534195571233</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.3932270452694053</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.2147435897435897</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.1957137080469066</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.5597707423580786</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.1777196044211751</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.3582589285714285</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.163895486935867</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.3542458354245835</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.3282386742790851</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.3704335515359021</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.3144045314404532</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0.2833256445668855</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0.3336454246257976</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.9874126957143767</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.9829665665111968</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0.9877126697196743</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0.9832477079829096</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0.1741138909501853</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0.2592547757984476</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0.2445814586116738</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0.2037785693469344</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0.1182713052927812</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>30</v>
+      </c>
+      <c r="C52" t="n">
+        <v>150</v>
+      </c>
+      <c r="D52" t="n">
+        <v>12</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12</v>
+      </c>
+      <c r="F52" t="n">
+        <v>150</v>
+      </c>
+      <c r="G52" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H52" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.3531225353122535</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.3184197318419732</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9456991945699195</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.99691689969169</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.2241997792494481</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.5962704390960867</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.2519444717928522</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.3184436346538145</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.2758278802300218</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.2154405820533549</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.5568594579491478</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.2239747634069401</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.2710886806056236</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.2339252908756889</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.3531225353122535</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.3316668581270932</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.3664082521096014</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.3184197318419732</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.2972083027267262</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0.3316796413079556</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.9834716643301533</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.9787083706157031</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.9836115794802515</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0.9785425449985264</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0.1750232987536992</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0.2610974463912991</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0.2426611079516067</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0.2020523516701286</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0.1191657952332691</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>50</v>
+      </c>
+      <c r="B53" t="n">
+        <v>30</v>
+      </c>
+      <c r="C53" t="n">
+        <v>150</v>
+      </c>
+      <c r="D53" t="n">
+        <v>11</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12</v>
+      </c>
+      <c r="F53" t="n">
+        <v>150</v>
+      </c>
+      <c r="G53" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H53" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.3546999354699936</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.3180612318061232</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9528930952893095</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.99971319997132</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.2767905959540732</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.5348515581781302</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.2694001369997064</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.3455019556714472</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.2681664344017519</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.227763923524522</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.4937828129317491</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.2321167883211679</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.3189170182841069</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.3546999354699936</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.3403293165417843</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.3623531180859809</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.3180612318061232</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0.3024998735731147</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0.326368891137324</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.9871628594664623</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.9839548326547009</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.9872472808199451</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0.984489744228501</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0.1734375306774506</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0.2588847800575069</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0.2443653553677602</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0.2023398967283701</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.1209724371689076</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>50</v>
+      </c>
+      <c r="B54" t="n">
+        <v>30</v>
+      </c>
+      <c r="C54" t="n">
+        <v>150</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12</v>
+      </c>
+      <c r="F54" t="n">
+        <v>150</v>
+      </c>
+      <c r="G54" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H54" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.3527162352716235</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.3139026313902631</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9620945962094596</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.01204560120456</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.3601856908793009</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.4784737620103474</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.3249097472924188</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.3146679294424056</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.1907144286571943</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.3002502085070892</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.4380664652567976</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.272459499263623</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.2904022582921665</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.1876116736152472</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.3527162352716235</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.3370842571256912</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.3583131853459596</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.3139026313902631</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.3007902672092929</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0.3186853424862028</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.9856330974413681</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.9795124770468283</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.9855746391067093</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0.9796733193877004</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0.1726562420353639</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0.2574125120472278</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0.2443547448577248</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0.203794469329106</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.1217820317305775</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>50</v>
+      </c>
+      <c r="B55" t="n">
+        <v>30</v>
+      </c>
+      <c r="C55" t="n">
+        <v>150</v>
+      </c>
+      <c r="D55" t="n">
+        <v>14</v>
+      </c>
+      <c r="E55" t="n">
+        <v>12</v>
+      </c>
+      <c r="F55" t="n">
+        <v>150</v>
+      </c>
+      <c r="G55" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H55" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.3530986353098635</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.3196386319638632</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9465356946535695</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.99075069907507</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.2766657526734302</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.5678177946486437</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.2306714886130388</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.407158836689038</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.160294703305456</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.2479406919275124</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.5365720524017468</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.1907412833284501</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.3744619799139168</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.1178960096735187</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.3530986353098635</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.3256536781942039</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.368214713941006</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.3196386319638632</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.2869115608673448</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0.3373278545261188</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.9852448389947265</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.9796338956291899</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.9845672819658905</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0.9789243937833333</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0.1744639781375952</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0.2577897299869417</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0.2446800700490251</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0.2034240524169993</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.119642169409453</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>50</v>
+      </c>
+      <c r="B56" t="n">
+        <v>30</v>
+      </c>
+      <c r="C56" t="n">
+        <v>150</v>
+      </c>
+      <c r="D56" t="n">
+        <v>14</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12</v>
+      </c>
+      <c r="F56" t="n">
+        <v>150</v>
+      </c>
+      <c r="G56" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H56" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.3559666355966636</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3118233311823331</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9424248942424894</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.00896250089625</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.3363136176066025</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.4780402288245064</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.3177441540577717</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.3671361502347418</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.179940417080437</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.2887438825448613</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.435070306038048</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.2697634160415465</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.3187250996015936</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.1511273613650213</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.3559666355966636</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.3387902337054857</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.3619860966605953</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.3118233311823331</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.2940376766747966</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0.3178762618791878</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.985187475904668</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.9805228546651447</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.9853294764274925</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0.9805340515738571</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0.1743774803192658</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0.2599942808072635</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0.2433618245310445</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0.2025784399210381</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.1196879744214026</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>50</v>
+      </c>
+      <c r="B57" t="n">
+        <v>30</v>
+      </c>
+      <c r="C57" t="n">
+        <v>150</v>
+      </c>
+      <c r="D57" t="n">
+        <v>14</v>
+      </c>
+      <c r="E57" t="n">
+        <v>12</v>
+      </c>
+      <c r="F57" t="n">
+        <v>150</v>
+      </c>
+      <c r="G57" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H57" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.3516407351640735</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.3150498315049832</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9303553930355393</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.9917544991754499</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.2560021950884895</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.5530141679785165</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.2302676399026764</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.4798349056603773</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.08803521408563425</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.2277024249897246</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.5032733224222586</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.1840308696942713</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.4516244198500535</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.06555423122765197</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.3516407351640735</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.3106068983958758</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.3734469368955226</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.3150498315049832</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.2728488202877444</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0.3382140359295088</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.9814899685868402</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.9751066544223125</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0.9812417889401743</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0.9742552205806638</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0.1756549613018585</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0.2580143500671293</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0.2448896451634464</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0.2017282092639148</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.1197128342036561</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>50</v>
+      </c>
+      <c r="B58" t="n">
+        <v>30</v>
+      </c>
+      <c r="C58" t="n">
+        <v>150</v>
+      </c>
+      <c r="D58" t="n">
+        <v>12</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12</v>
+      </c>
+      <c r="F58" t="n">
+        <v>150</v>
+      </c>
+      <c r="G58" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H58" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.3553213355321336</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.3164121316412132</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9361630936163093</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.9891015989101599</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.2657304144292992</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.5629744809292966</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.2413218278093744</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.4223088739217771</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.1498796147672552</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.2155347702318015</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.5130237825594564</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.208357515960534</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.4002838892831795</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.1329787234042553</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.3553213355321336</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.3250383649535505</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.3707224062163569</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.3164121316412132</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.2885981658065538</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0.3322167906560902</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.9924353435576549</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.9930352059128462</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.9931415856764921</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0.9940192285033553</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0.1739805820354219</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0.2616580840772069</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0.2437203238134007</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0.2020088785733838</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.1186321315005724</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>50</v>
+      </c>
+      <c r="B59" t="n">
+        <v>30</v>
+      </c>
+      <c r="C59" t="n">
+        <v>150</v>
+      </c>
+      <c r="D59" t="n">
+        <v>14</v>
+      </c>
+      <c r="E59" t="n">
+        <v>12</v>
+      </c>
+      <c r="F59" t="n">
+        <v>150</v>
+      </c>
+      <c r="G59" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H59" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.3574723357472336</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.3201405320140532</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9134580913458091</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.9618555961855596</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.1472593400599946</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.6541130748588878</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.2476695123147876</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.3958431743032593</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.1848839515969054</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.1109715242881072</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.6049753963914708</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.2122791775267883</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.3618912193387842</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.1443425076452599</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.3574723357472336</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.3180871416187758</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.3823109868392358</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.3201405320140532</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.2750570519168169</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.347099518861917</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.9975829183766063</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.9950832632972446</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.9974487965411896</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0.9948474039888319</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0.1731547702323713</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0.2588595006234135</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0.244453458283936</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0.2027182062023509</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.120814064657911</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>50</v>
+      </c>
+      <c r="B60" t="n">
+        <v>30</v>
+      </c>
+      <c r="C60" t="n">
+        <v>150</v>
+      </c>
+      <c r="D60" t="n">
+        <v>14</v>
+      </c>
+      <c r="E60" t="n">
+        <v>12</v>
+      </c>
+      <c r="F60" t="n">
+        <v>150</v>
+      </c>
+      <c r="G60" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H60" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.3490356349035635</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.3222915322291532</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9642455964245596</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.0014340001434</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.3571233251298879</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.4895246885094601</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.2765352167941927</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.3685821950070655</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.1476228525769077</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.3480066445182724</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.4606060606060606</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.2350724637681159</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.3488705629257798</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.1203592814371258</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.3490356349035635</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.3270421200306791</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.3580377764342579</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.3222915322291532</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.2991184736759533</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0.3323818818174295</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.9831174841797694</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.9779294101051057</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.9829169058659512</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0.9780552619919638</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0.1738610528310538</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0.2573515908782486</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0.2437967019739526</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0.2040368334789284</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.1209538208377962</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>50</v>
+      </c>
+      <c r="B61" t="n">
+        <v>30</v>
+      </c>
+      <c r="C61" t="n">
+        <v>150</v>
+      </c>
+      <c r="D61" t="n">
+        <v>12</v>
+      </c>
+      <c r="E61" t="n">
+        <v>12</v>
+      </c>
+      <c r="F61" t="n">
+        <v>150</v>
+      </c>
+      <c r="G61" t="n">
+        <v>41841</v>
+      </c>
+      <c r="H61" t="n">
+        <v>13947</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3547477354747736</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3106044310604431</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9435242943524295</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.9905355990535599</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.2446735395189003</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.6033149171270719</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.2138750852577219</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.4072183307610115</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.1764940239043825</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.1920719248058848</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.5553398058252427</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.1617864537119195</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3694891532540238</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.1551932367149758</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3547477354747736</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3240414952471299</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3730144836554527</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3106044310604431</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.2789053480891767</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.331039415087439</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.985039060424525</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.983120851382943</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.9848126855579006</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.9828222915747377</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.1739945410652278</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.2610770167837422</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.2449072661905805</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.2003642644369977</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.1196569115234618</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6735,7 +10125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF31"/>
+  <dimension ref="A1:AF61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9845,6 +13235,2946 @@
         <v>0.1135848331783092</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B32" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C32" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.296049329604933</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.294543629454363</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.077101407710141</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.074352907435291</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.3381530486973128</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.3084941025875468</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.2432698944877231</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.3693972179289026</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.1911969727145987</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.3400250941028858</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.2979024943310657</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.2326577219526121</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.3867595818815331</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.1927492447129909</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.296049329604933</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.2897587100826833</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.2986369665749777</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.294543629454363</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.2892997211981692</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.2976738458851368</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.977130279771347</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.9724836961503029</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.9770549720414323</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.9724391563805547</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.2059997787195946</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.221728927785796</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.2415648705449465</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.2154189416772743</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.1152874812723873</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B33" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.2943046294304629</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.2934681293468129</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.077985707798571</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.070767907076791</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3424076607387141</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.2535704413526214</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.274272318812268</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.3901020650367909</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.1922616673314719</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.3383084577114428</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.2563676633444075</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.2739283617146213</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.3887915936952714</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.1853188929001203</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.2943046294304629</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.2891299714618207</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.2972949821379017</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.2934681293468129</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.2870982646734292</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.2964338797949027</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.979089450960639</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.9747199397635743</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.9786803400654105</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.9741107196328227</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.2075311036643978</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.2197254202991162</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.2454367175230628</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.2130100870486059</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.1142966714648178</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B34" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C34" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.300901030090103</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.305585430558543</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.075954207595421</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.05105040510504</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.3454668470906631</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.4118404118404118</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.1457142857142857</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3780357777514513</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.1780409474106784</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.3336192109777015</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.4176191803735712</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.1534058385804236</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.3887323943661972</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.2042502951593861</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.300901030090103</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.2850790703335719</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.3120299219087819</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.305585430558543</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.2929230882355996</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.3161654127504838</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.9798253487935285</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.9790861458419239</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.979993338869847</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.9794864498204909</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.2050065337877503</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.2223017559521374</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.2376102986661629</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.2178245212916654</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.1172568903022854</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B35" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C35" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.301594130159413</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.2935398293539829</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.071341507134151</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.078153007815301</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.3445239405613649</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.3652495378927911</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.1826265389876881</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3930921052631579</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.189334931096465</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.3349633251833741</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.3508916323731139</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.1736070381231672</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.387143373058866</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.1971240263630917</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.301594130159413</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.2909143925309173</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.308420484598123</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.2935398293539829</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.2848937419815986</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.3000749641519623</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.9810590233723744</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.9796907450178425</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.9805523140337302</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.9791958218628588</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.2116163290100612</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.2210546105686486</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.2389915281121247</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.2150307434519361</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.1133067888572291</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B36" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C36" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.297411629741163</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.298773929877393</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.074783107478311</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.072632107263211</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.3416370106761566</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.321735945797473</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2192818494835219</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.3830592688986159</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.1935935935935936</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.3489238410596027</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.3355913068021451</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.2138545559068698</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.3790664780763791</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.189767995240928</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.297411629741163</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.2903550971773336</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.3012008868589453</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.298773929877393</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.2910843328951477</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.3029721609729736</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.9797408326375289</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.9767386450348973</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.9787890747905342</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.9755669722880278</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.2095201991065866</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.2227904095137221</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.2402188025859308</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.2119828606678295</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.1154877281259293</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B37" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C37" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.2925599292559929</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2923209292320929</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.074998207499821</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.074209507420951</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.3368983957219251</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.2276167620454126</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.3101833788529068</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.3755159806580965</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.1914509331727875</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.3519967064635652</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.2272101349490498</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.3063089622641509</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.3715203426124197</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.1872415829887773</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.2925599292559929</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.2872096332021472</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.2957165845084409</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.2923209292320929</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.2872528364645779</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.295707305527253</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.9756844266573417</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.9685797324717593</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.9755543777946842</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.9684210432825113</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.2068593801742382</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.2198222003888396</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.2457026952579797</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.2130760371655598</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.1145396870133826</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B38" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C38" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2956191295619129</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.2900265290026529</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.072727707272771</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.082885208288521</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.3450588557350123</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.2605731134248595</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.2614889257488536</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.400070913603593</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.1920756234915527</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.3394039735099338</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.2577519379844961</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.2559646539027982</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.3939716312056737</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.1842723004694836</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.2956191295619129</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.2899747083779413</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.2989329875947297</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.2900265290026529</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.2844059329962018</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.2933637943494215</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.9867105776825218</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.9848233473311939</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.986476637484514</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.9844329967174518</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.2092911043592628</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.22136182695277</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.2412435397915241</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.2141604778363906</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.1139430510600522</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B39" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C39" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.300303530030353</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.298845629884563</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.074591907459191</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.067469706746971</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.3445955225930504</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.3777961888980945</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.1651331245105717</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.3901658767772512</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.1928188851418369</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.3392052437525604</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.3786785119378123</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.1624854142357059</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.3892995424146427</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.1914373088685015</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.300303530030353</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.2889704132257709</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.3085810493721808</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.298845629884563</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.2871408689335109</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.3071673571719334</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.9815138247530161</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.9800516400936613</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.981683829192862</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.9803184366581809</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.2084894990632939</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.222466854266938</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.2392564648626537</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.2139812870196225</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.1158058947874942</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B40" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C40" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2950455295045529</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.298128629812863</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.077077507707751</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.071126407112641</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.3376605629953539</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.2934722478333026</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.2431640625</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.3839075035394054</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.1908889336827252</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.3531613976705491</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.2904117159436309</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.2441245593419507</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.3875222816399287</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.1982507288629738</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.2950455295045529</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.288899311293468</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.2979010846699665</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.298128629812863</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.292943299275722</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.3011384095626015</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.9791177439746676</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.9752639572200266</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.9797740841445659</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.9764542940289433</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.209810230311659</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.2202564298732992</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.2401004072297229</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.2140261326792765</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.1158067999060402</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B41" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C41" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.297937429793743</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.297268229726823</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.075667407566741</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.068473506847351</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.3403148528405202</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.3195085904304452</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.2314551690347869</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.3754555072293406</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.193077230892357</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.3462970624741415</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.3190436933223413</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.2247746437918</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.3821196827685652</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.1877234803337306</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.297937429793743</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.2911445247561048</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.3010826889345379</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.297268229726823</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.2902304953354223</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.301013802223477</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.9760001402347704</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.9718553681466554</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.9751266535928721</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.9709275311962891</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.2054164582703066</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.2213310472464946</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.2406232234295916</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.217704126942445</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.1149251441111633</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C42" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.296694629669463</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.298845629884563</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.078535407853541</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.062952606295261</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.3473439211391018</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.3208137715179969</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.2076341870277696</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.394061757719715</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.189215879913095</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.3287841191066997</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.3248195446973903</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.2169128294236896</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.3953163229639986</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.2002479851208928</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.296694629669463</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.2891481328105675</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.3013576748051374</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.298845629884563</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.2914020921408634</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.3028186093813179</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.985581876248945</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.9835406083039149</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.9852648367155192</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.9831356751301336</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.2043055226623334</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.2201895578088204</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.2399298424486697</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.2182335761860746</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.1173415008941007</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.2926077292607729</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.2903133290313329</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.077412107741211</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.076002007600201</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.3387052717836657</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.2253171538885824</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.3001082357571583</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.3889085545722714</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.1930841495102938</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.3441666666666667</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.2266517981600223</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.2869864981327205</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.3909479686386315</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.1876867901972505</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.2926077292607729</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.2872894973860269</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.296134224168874</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.2903133290313329</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.2848934910010447</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.2941094686659257</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.980444649298537</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.9758178694038971</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.9805549158057986</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.9762483417851693</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.2081207626669819</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.2202869196455879</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.2454853801918925</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.2123572552429165</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.1137496822526222</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B44" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C44" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.297268229726823</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.301283430128343</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.075500107550011</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.068545206854521</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.3418032786885246</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.338944076526858</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.1985436893203884</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3936500358080687</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.1826594246630457</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.3492922564529559</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.3406623991093793</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.1985645933014354</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.3885635549431622</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.2035190615835777</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.297268229726823</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.2878831041132572</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.302804289691608</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.301283430128343</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.2941961385697533</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.3060854258712811</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.9837363785931423</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.9812412398690807</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.9842559142795313</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.981844826852726</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.2097814889394935</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.2225582475185044</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.2398778339944583</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.2122548663366465</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.1155275632108938</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B45" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C45" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.303697330369733</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.3031476303147631</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.067876006787601</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.064028106402811</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.3405606960364591</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.4315634760242513</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.1327683615819209</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.3879474940334129</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.1833070244672454</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.3478436114469972</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.4233025984911987</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.125814091178212</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.3764219234746639</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.207089552238806</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.303697330369733</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.286221556436251</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.3172905952814507</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.3031476303147631</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.288052663191308</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.3161227480684028</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.982281564249375</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.9819107587361339</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.982457602882113</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.9818764291707359</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.2106349998274901</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.2231168454738524</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.2366112279401693</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.2130444076114726</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.1165925191470158</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B46" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C46" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2936593293659329</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.298272029827203</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.075858607585861</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.074066107406611</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.3418885533900631</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.2758107982529505</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2555848209930738</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3814445096887845</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.1909307875894988</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.3415435139573071</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.2786177105831533</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.2664308871205423</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.3879248011569053</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.1935679611650485</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.2936593293659329</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.2882732741085424</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.2963584278280643</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.298272029827203</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.2925137216601122</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.3008509801187724</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.9743168896985031</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.9692830433221666</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.9745468698538661</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.969367070814631</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.2094900381356346</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.2211503239838088</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.2403658741702988</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.2149079741775188</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.1140857895327417</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B47" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C47" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2870390287039029</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.300351330035133</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.084701608470161</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.068473506847351</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.3390387511981378</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.1941952023438931</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.3363369245837414</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.3659174693780473</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.1805083049829898</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.3559322033898305</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.2066045723962743</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.3313919627256843</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.3875348189415042</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.2054794520547945</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.2870390287039029</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.280254242071777</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.2921329249743899</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.300351330035133</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.2954316455991154</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.3046098692887796</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.9740445347078955</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.9677780533327188</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.9744296947620951</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.9687343333838314</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.2094136560747002</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.220651471336603</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.2430115334355834</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.2105057968434842</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.1164175423096274</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B48" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C48" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.298821729882173</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.297770129777013</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.074687507468751</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.079873807987381</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.3420333424432905</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.3482771396813635</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.1864705882352941</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.3958308935472538</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.1920609462710505</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.348585690515807</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.3431452711910603</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.1869918699186992</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.3960612691466083</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.1931279620853081</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.298821729882173</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.2893187905470694</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.3049379127306862</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.297770129777013</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.2894576865080695</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.3039271619405894</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.9769628416382241</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.9750619559247327</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.9768526379976009</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.9746457559745829</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0.2105342462326374</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.2214013136026383</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.2384545273462663</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0.2157955718703992</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0.1138143409480589</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B49" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C49" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.296885829688583</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.2888076288807629</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.074615807461581</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.082670108267011</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.343236582694414</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.2834441980783444</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.2492202729044834</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3925688509021842</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.1954662954861802</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.3399503722084367</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.2749244712990936</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.234338061465721</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.3881694084704235</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.1839708561020036</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.296885829688583</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.291558201191402</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.299883811909493</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.2888076288807629</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.2823604484411721</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.2920833821530559</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.9846862212492968</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.9819551597680014</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.9847284593302158</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.9822782401337773</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.2095330225755941</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.2182403248314896</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.2411879714224724</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0.2146327412136311</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.1164059399568112</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B50" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C50" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2920580292058029</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.2949738294973829</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.078989507898951</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.068043306804331</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.3446959367330243</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.2418966475273199</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2763990267639903</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.3909783384908355</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.189785373608903</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.3379396984924623</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.2563403326970276</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.2766399525081626</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.3900659951372004</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.1897810218978102</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.2920580292058029</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.2868401411937352</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.2954246450978317</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.2949738294973829</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.2891815561934229</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.2976086910104477</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.9825334079111272</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.9791613212468173</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.9835209113513959</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.9801599871552934</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.2052945492466854</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.2176076398283217</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.2445819067868704</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0.2163586262142102</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0.1161572779239127</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B51" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C51" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.3044382304438231</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.298558829855883</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.067804306780431</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.077077507707751</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.3462546558145951</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.4140357374317193</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.1440329218106996</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.384149889444897</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.1973157051282051</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.3295592397897291</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.4074781659388647</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.1503781268179174</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.3883928571428572</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.1751781472684086</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.3044382304438231</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.2902032028001171</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.3155939778691709</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.298558829855883</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.2827752563880075</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.3096013974448046</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.9821357184412257</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.981325571531766</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.9822436342626851</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0.9808741265732319</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0.2080881678194999</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.2218453367934745</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.2397316136886784</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0.217190070193647</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0.1131448115047007</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B52" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C52" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.300470830047083</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.2928945292894529</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.068401806840181</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.084104108410411</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.3454746136865342</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.3521954804335844</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.1877522890617308</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.3960268014576231</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.1899662899068015</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.3367016976556184</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.348141939089131</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.1806710639518211</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.3828406633020908</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.1922841396203307</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.300470830047083</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.290729194297464</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.3067109568743475</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.2928945292894529</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.2846588148031822</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.2990704496019472</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.9847574133462288</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.9835088061414087</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.9847748831560847</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.9832906920469312</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0.2114705880269456</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.2229430665241146</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.23835437056346</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.2130917402708048</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0.1141402346146734</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B53" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C53" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2940417294041729</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.297626729762673</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.075117707511771</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.071556607155661</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.3385729907053034</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.2878480545823345</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.2384773461199726</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.3943344790802418</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.1871391598646227</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.3520365752285952</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.277977341807129</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.2294890510948905</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.419479606188467</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.1929824561403509</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.2940417294041729</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.2875930501303407</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.2974767930159817</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.297626729762673</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.2914576903376384</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.3020110940154341</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.9795386329664018</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.9763114280808387</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.9796433233868168</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0.9768724000350487</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0.2087006102133676</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.2205467822826948</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.2420883108322794</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.2119170444544954</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0.1167472522171639</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B54" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C54" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.2923926292392629</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.293181329318133</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.081475108147511</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.074352907435291</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.3446204259967231</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.2705629817543175</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3944595714454836</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.193115869521713</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.341534612176814</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.2444383411150783</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.2730486008836524</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.3955539872971066</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.197736748064324</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.2923926292392629</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.2873708652941279</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.2957605650973659</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.293181329318133</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.2880895706209406</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.2962798165006282</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.973969521999192</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.9689316792562042</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.9744199665837276</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.9694382192037632</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0.2070055478213687</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.2182572682515647</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.2424653513836649</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.2157985153856754</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0.1164733171577284</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B55" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C55" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.2940178294017829</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.2935398293539829</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.076193207619321</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.076217107621711</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.3459007403345215</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.2602536802147949</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.2680089922783697</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3825503355704698</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.1945440063719634</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.3393739703459638</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.2620087336244541</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.2669205977146206</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.1880290205562273</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.2940178294017829</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.2891772547339529</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.2967523434822605</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.2935398293539829</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.2875648755637046</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.2963658300001147</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.9788574078704378</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.9745235169805248</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.9792483065646588</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.9748880725178113</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0.2063229533542611</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.2186930211402697</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.2435484845892114</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.2148848231863793</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0.1165507177298765</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B56" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C56" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.296527329652733</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.2894529289452929</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.071484907148491</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.091345809134581</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.3434662998624484</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.2730208525558221</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.2665553153861269</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.3835680751173709</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.1926514399205561</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.3372756933115824</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.2674386545354288</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.2608193883439123</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.3708801159000362</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.190127970749543</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.296527329652733</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.2910989072026267</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.2991500938728868</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.2894529289452929</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.28431196142579</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.2918542603397847</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.9785495036685241</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.9743441874106629</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.9782294212445495</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.9739087465433179</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0.2093661137168993</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.2198582983751943</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.242401744035527</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.2123325642232158</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0.1160412796491647</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B57" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C57" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.297172629717263</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2898831289883129</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.071389307138931</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.086326808632681</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.3359857319248182</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.2831743679970368</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.2695863746958638</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.376061320754717</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.1936774709883954</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.3501849568434032</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.2618657937806874</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.2629860492727812</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.3684398429132453</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.1865315852205006</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.297172629717263</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.2917393417261074</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.299301243758683</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.2898831289883129</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.2846911343159468</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.2925781634674738</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.9756382194992389</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.9700478561699791</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.9759352748811299</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.9710437069458938</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0.2119088499804435</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.2189995226158981</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.2430763720674748</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0.2107292433204314</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0.1152860120157516</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B58" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C58" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.2933486293348629</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.2932530293253029</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.073874907387491</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.082526708252671</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.3381522786727248</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.2524467209366139</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.2788782114140028</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.1924157303370786</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.3387555917039447</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.2669875424688562</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.2756819500870575</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.3743789921930447</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.1826241134751773</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.2933486293348629</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.2882789085530884</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.2960619034692286</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.2932530293253029</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.2872043901927618</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.295814071519426</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.9762818000720767</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.9709306363236518</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.9763483391149024</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.9707656499758194</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0.2052467987665832</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.2227014241801767</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.2429941654977012</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.2154416120779171</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0.1136159994776201</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B59" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C59" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.299634329963433</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.298343729834373</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.075380607538061</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.068903706890371</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.3423779656394873</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.3629129268066993</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.1797664606024924</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3937175247992442</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.1860741916286451</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.342964824120603</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.3586659376708584</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.172313929916015</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.3985069321009598</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.1920489296636086</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.299634329963433</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.2889106324565902</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.3067043004929042</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.298343729834373</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.2875228653836855</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.3057987735291859</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.9868711499725069</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.9847686484049545</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.987207126253467</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.9854682348099683</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.2105858864981178</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.2199911962428867</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.2379446986274701</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.2137580624406258</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0.1177201561908996</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B60" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C60" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.2935398293539829</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2932530293253029</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.080065008006501</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.077794507779451</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.3412633305988515</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.2437471158283341</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.2810476751030018</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.3904851625058879</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.1925689172992409</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.3500830564784053</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.2487603305785124</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.2681159420289855</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.3940480458945859</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.1916167664670659</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.2935398293539829</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.288290849751703</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.296731387679336</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.2932530293253029</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.288111966371377</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.2963563836509239</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.9801029824205699</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.9763974315971633</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.9791708357770744</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.9755239350385631</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0.2055158288808309</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.2194658146230703</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.2405742907782813</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.2175335781807506</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0.1169104875370668</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="B61" t="n">
+        <v>41841</v>
+      </c>
+      <c r="C61" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.297937429793743</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.298845629884563</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.074496307449631</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.071700007170001</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3413058419243986</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3302025782688766</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.212608399103576</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3848984922236733</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.1938247011952191</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3424601552921945</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3298196948682385</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.2182786157941437</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.381035689293212</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.1896135265700483</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.297937429793743</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.290634273916874</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3021092858397925</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.298845629884563</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.2908397419988106</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3027856759435885</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.9788697777989466</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.9761049005638736</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.9807182476627073</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.9779954186847613</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.21054423083758</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.2218301455351958</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.2415517640824659</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.2124890263664489</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.1135848331783092</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9856,7 +16186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13061,6 +19391,3036 @@
         <v>0.1189179545043556</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B32" t="n">
+        <v>100</v>
+      </c>
+      <c r="C32" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D32" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.3300112330011233</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.3215028321502832</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9621662962166296</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9605649960564996</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1846951302687219</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.677882417481942</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.06419485257864116</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.4632029485197955</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.09818761202947621</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.1802593057298202</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.6655328798185941</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.05766485869254925</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.4710801393728223</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.09123867069486405</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.3300112330011233</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.2657490027040982</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.3807143214181598</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.3215028321502832</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.2586301923488591</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.3732918500649582</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.9739243934201258</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.9655939136777918</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.9752589280958007</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.9656993219454908</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.174216567239052</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.2599268841665893</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.2413789205241095</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.2021495413982104</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.1223280866720397</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B33" t="n">
+        <v>100</v>
+      </c>
+      <c r="C33" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D33" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3328314332831434</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3272388327238833</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9523911952391195</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9475872947587295</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.1975376196990424</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.6518934856721644</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0928892361789412</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.4780441490624258</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.08536098923015556</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1774461028192371</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.6486710963455149</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.08573106283029946</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.4788091068301226</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.08062575210589651</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.3328314332831434</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.2730854161520647</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.3772082292618807</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.3272388327238833</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.264535765610703</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.373720326851653</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.9770222943604887</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.962993068189306</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.9767402588804627</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.9633773726738486</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.1736552030931274</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.2600177968144614</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.2447784110944648</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.201193257814569</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.1203553311833794</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B34" t="n">
+        <v>100</v>
+      </c>
+      <c r="C34" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D34" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3295571329557133</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.3307521330752133</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9622140962214096</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9473721947372195</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.2147496617050068</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.6654715940430226</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.05940886699507389</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.4909370927615211</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.04335608189482135</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.2079759862778731</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.6637858935043212</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.06267887807670292</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.5084507042253521</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.04958677685950413</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.3295571329557133</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.2553341367165674</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.3851955148505458</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.3307521330752133</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.2582622084363608</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.3870166677309748</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.9756752053984437</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.9612327602027878</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.9764665563596397</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.9641371180571685</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.1751663322577074</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.2585818114654</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.2427675430199049</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.2044861398099079</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.1189981734470788</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B35" t="n">
+        <v>100</v>
+      </c>
+      <c r="C35" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D35" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.3314213331421333</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.3246576324657632</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9550201955020196</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.9579837957983796</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.2045954870665933</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.6576709796672828</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.08032050029314051</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.4790883458646616</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.07269822248851608</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1939690301548492</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.6496570644718793</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.07653958944281525</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.4716504153123872</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.0701018573996405</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.3314213331421333</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.2677295961791313</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.3791132331505593</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.3246576324657632</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.2603396387813567</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.3729358476890465</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.9724221253760434</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.9619005046832181</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.9725758909133928</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.9594740689084772</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.1756844989014331</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.2600493356074806</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.2438053249531425</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.2019427331905979</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.1185181073473439</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B36" t="n">
+        <v>100</v>
+      </c>
+      <c r="C36" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D36" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.3317798331779833</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.3234387323438732</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9557610955761096</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9663009966300997</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.2102381604160964</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.6503387657938107</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.08263649778652238</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.4787649355258488</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.07127127127127127</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.2081953642384106</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.6409822184589331</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.07300948548433459</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.477015558698727</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.07971445568114217</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.3317798331779833</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.2682119706559565</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.3785668570521794</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.3234387323438732</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.2645485975069822</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.3701160886289527</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.9753428863154507</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.9666410943302335</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.9746923342634674</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.965813048072666</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.1755506235240321</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.2603317446764631</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.2435445461967375</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.2014880954421755</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.1190849901605916</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B37" t="n">
+        <v>100</v>
+      </c>
+      <c r="C37" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D37" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.3285772328577233</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.3250161325016133</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9512439951243995</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9599913959991396</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.1701631701631702</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.6763891452833671</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.07559500585251658</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.4829578959782993</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.06201083684527393</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.1679703581720873</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.6697879372073808</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.0660377358490566</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.483226266952177</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.06792675723567632</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.3285772328577233</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.2576619616070982</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.3816844366359342</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.3250161325016133</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.2548373993642757</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.3789768155203725</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.9770901809735852</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.9655432594507973</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.97673017828564</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.9661292139466201</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.174070358641548</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.258261625188573</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.2456693555697846</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.2026875362718136</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.1193111243282842</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B38" t="n">
+        <v>100</v>
+      </c>
+      <c r="C38" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D38" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.3283143328314333</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.3295332329533233</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9592743959274396</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9619272961927297</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.204078839310156</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6602782640744495</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.05698116889452629</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.4928495449710436</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.06556717618664522</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.2077814569536424</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6699889258028793</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.06038291605301915</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.4829787234042553</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.06279342723004695</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.3283143328314333</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.2590212148017955</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.3822846554461191</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.3295332329533233</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.2598178044800189</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.3834434792972964</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.9751501264525551</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.9644083129140003</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.9761375196616242</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.9644909799139747</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.1767069974065848</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.2590950699438556</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.2428365404708716</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.2027481741826563</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.118613217996032</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B39" t="n">
+        <v>100</v>
+      </c>
+      <c r="C39" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D39" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.3286489328648933</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.3359145335914533</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9565975956597595</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9435720943572095</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.188298310671611</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.6637208874159992</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.07507830853563038</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.4754739336492891</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.07736560206308273</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.1900860303154445</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.679622431982232</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.08051341890315053</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.4780007039774727</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.08501529051987768</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.3286489328648933</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.2637947076446118</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.3780983029003682</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.3359145335914533</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.2715434472810191</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.3848652168944089</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.9768249842381792</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.9644379603154967</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.9761640295634919</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.9629491596042086</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.1738971063481472</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.2615239440302209</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.244954751818092</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.2001408231855216</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.1194833746180178</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B40" t="n">
+        <v>100</v>
+      </c>
+      <c r="C40" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D40" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3285533328553333</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.3310389331038933</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9539685953968595</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9489495948949594</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.1724514894779995</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.6795131845841785</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.06308593749999999</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.4952807928268051</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.05462608345091716</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.1838602329450915</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.6783641890024869</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.06404230317273796</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.5062388591800356</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.0478134110787172</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.3285533328553333</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.2533265039283438</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.3857350095193867</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.3310389331038933</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.25511886437835</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.3886718101017849</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.9795355661351339</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.9673498954441312</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.980289280028271</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.96778582545596</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.1746885876875126</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.2589751342891156</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.2444528272003253</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.2032886961660671</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.1185947546569802</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B41" t="n">
+        <v>100</v>
+      </c>
+      <c r="C41" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D41" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3299634329963433</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.3292464329246433</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9535622953562295</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9455079945507995</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1950718685831622</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.653704045815629</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.08809407153356198</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.4778417773598213</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.06802721088435375</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.1799751758378155</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.6521022258862325</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.09246874091305612</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.4902667627974044</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.0631704410011919</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.3299634329963433</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.2660024389293262</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.3767695120507033</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.3292464329246433</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.2633396783108776</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.3773941506438234</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.9727320011979572</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.9575033876421767</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.9738542319150323</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.9601441784925581</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.1733757949495757</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.2587696725050952</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.244380211154449</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.2038605128940834</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.1196138084967975</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B42" t="n">
+        <v>100</v>
+      </c>
+      <c r="C42" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D42" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.3298200329820033</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.3328314332831434</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9608756960875696</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9489495948949594</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.2152245345016429</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6502807695848293</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.072514964184084</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.4735154394299287</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0865099743235236</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.2034739454094293</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.6543586896168795</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.07645525629887055</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.4830478853547711</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.09113453192808431</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.3298200329820033</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.2696172029176612</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.3765652967121245</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.3328314332831434</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.2717008748275326</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.3797181759174731</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.9758467479225642</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.9626758559320123</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.9754973883981254</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.9635323502758952</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.1735533979701388</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.2577976561585749</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.2448732363195367</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.2027017731347072</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.1210739364170417</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>100</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D43" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.3288879328887933</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.3296766329676633</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9489495948949594</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9482325948232595</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.1533733952472002</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.676594962309248</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.07724097215389157</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.4860176991150442</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.07475514691185289</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.1566666666666667</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6799553944800669</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.08532031025567366</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.4882394868139701</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.06933652121936641</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.3288879328887933</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.2587394806644999</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.3817459323619448</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.3296766329676633</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.2603716521488169</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.382091089146857</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.9808897140551348</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.9698220118005074</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.9811055877877463</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.9688988517578955</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.1744830392881292</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.2604093632085488</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.242675650371059</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.2028574527539563</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.1195744943783061</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B44" t="n">
+        <v>100</v>
+      </c>
+      <c r="C44" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D44" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.3295810329581033</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.3315408331540833</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9477784947778495</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9458664945866495</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1766393442622951</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6644591611479028</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.08990291262135923</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.4925996657913583</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.04425668879501107</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.1956702747710241</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6543278597272474</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.09031100478468899</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.4877712710988633</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.04985337243401759</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.3295810329581033</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.2574585845267688</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.3813552904607418</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.3315408331540833</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.2631693837414779</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.3802740415365993</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.9753108118236089</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.9623462589539558</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.9752014902074937</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.961144121988888</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.1753183378300443</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.2584449202881764</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.2466442591662507</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.2005270489881934</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.1190654337273325</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B45" t="n">
+        <v>100</v>
+      </c>
+      <c r="C45" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D45" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.3317081331708133</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.3290313329031333</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.9474916947491695</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9432852943285295</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.1817428531970722</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.6502847694286239</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1053964543152153</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.4795942720763723</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.07557221783741121</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.1749294639258364</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.6504610226320201</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.1000592066311427</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.4663908996897622</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.0845771144278607</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.3317081331708133</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.2704393007776983</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.3758094880393115</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.3290313329031333</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.2692855114557841</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.372034976980575</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.9715640220916726</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.9542582617587951</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.9721027446183426</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.9550796481120375</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.1743546247195004</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.2567279468832513</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.2447674004231347</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.2024041360051981</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.121745891968916</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B46" t="n">
+        <v>100</v>
+      </c>
+      <c r="C46" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D46" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.3309194330919433</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.3354843335484334</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9496426949642695</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9432852943285295</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.2095800164699423</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.6321903168850479</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.1124768315286313</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.4759835584263065</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.06165473349244233</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.6384989200863931</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.1075744179192455</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.480115690527838</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.06007281553398058</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.3309194330919433</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.2714932970186189</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.3723074580012231</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.3354843335484334</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.2729252927277868</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.378290436397605</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.9710497985086584</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.9557384814328612</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.9710388061879076</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.9535584779291729</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.1757444637993091</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.2580507233683763</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.2448903002928141</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.2023521431189136</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.1189623694205881</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B47" t="n">
+        <v>100</v>
+      </c>
+      <c r="C47" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D47" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3300590330059033</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.3331899333189933</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9518892951889295</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9411342941134294</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.2000547720115021</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.6431056583043399</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.09422135161606268</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.4794862647163753</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.06623974384630779</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.1934683753617197</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.65961049957663</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.09143855562026791</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.4958217270194986</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.06194163192376415</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.3300590330059033</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.2673366955601036</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.3752206357565731</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.3331899333189933</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.2678458480476626</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.3811204467233926</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.9742459376175446</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.9594715362961342</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.9754164048960441</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.9630377137200762</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.1717091653537782</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.2602291462994821</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.2462286751327967</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.2011277141285163</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.1207052990854245</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B48" t="n">
+        <v>100</v>
+      </c>
+      <c r="C48" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D48" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.3303936330393633</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.3273105327310533</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9514351951435195</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9623574962357496</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.1959551790106586</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.656817339755465</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0757843137254902</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.4894015692704063</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.06956696070569367</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.1863560732113145</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.6614881439084219</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.07520325203252033</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.4781181619256017</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.07109004739336493</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.3303936330393633</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.2644699827412701</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.3798939911174259</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.3273105327310533</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.2607113656849407</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.3777243957057575</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.9785114741182565</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.9625419480145272</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.9781312791023142</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0.9622377744202784</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.1747587740148143</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.2590137626315756</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0.2438843546125625</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0.2040054986547453</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0.1183376100863029</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B49" t="n">
+        <v>100</v>
+      </c>
+      <c r="C49" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D49" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.3308238330823833</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.3316842331684233</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9521282952128295</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9521043952104395</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.213170865279299</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.6306356245380635</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.1062378167641325</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.4685422602089269</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.08391330284350766</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.2109181141439206</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.6218071958253227</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.1096335697399527</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.4700735036751837</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.08378870673952642</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.3308238330823833</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.2761184079425908</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.3703289815084771</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.3316842331684233</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.2762556759849134</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.3702370607743347</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.9699848075752986</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.9593453301461847</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.9706894100126113</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.9605486131990907</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.1739352478200027</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.2555229398045027</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0.2482979925262308</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.2017079117619273</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0.1205359080873364</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B50" t="n">
+        <v>100</v>
+      </c>
+      <c r="C50" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D50" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.3304892330489233</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.3303936330393633</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9511961951196195</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9545421954542196</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1959367330242705</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.6541952213372847</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0848661800486618</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.4970245179719114</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.05544515103338633</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.2010050251256282</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.647941096263976</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.07569011576135352</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.488711358110455</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.05474452554744526</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.3304892330489233</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.2630887125896335</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.380238148741309</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.3303936330393633</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.2604087183297571</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.3805081571962476</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.9785735059746239</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.9649907547064307</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.9795553531106634</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.9655093149514183</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.1729835736616876</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.2588035259390984</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0.2448994069118571</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0.2042310102259692</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0.1190824832613873</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B51" t="n">
+        <v>100</v>
+      </c>
+      <c r="C51" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D51" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.3302502330250233</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.3254463325446332</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.9513156951315695</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9614253961425396</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.1834735825631122</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.6663271919266734</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.07818930041152264</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.4805073897358315</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.07291666666666667</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.1835826930853215</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.662117903930131</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.06922629435718441</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.4851190476190476</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.06947743467933491</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.3302502330250233</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.2637475131179086</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.3801351729986702</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.3254463325446332</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.2585357964426711</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.3772473462808658</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.9748661768953308</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.9669552871814682</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0.9758777944117372</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0.9671383851618087</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.1750317103965352</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.2588144458837376</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0.2445283111997274</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0.203568652634609</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0.1180568798853906</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B52" t="n">
+        <v>100</v>
+      </c>
+      <c r="C52" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D52" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.3319471331947133</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.3209292320929232</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.9515546951554695</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9671613967161397</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.2012969094922737</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.6512033804887011</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.08595057595746776</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.4884213001057952</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.06206623041840174</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.1976556184316896</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.6401229393685387</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.08230570691138514</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.475126171593367</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.05572565829761176</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.3319471331947133</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.2660677755852247</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.3798433564604272</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.3209292320929232</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.257150148572276</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.3685024295605521</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.9738546639149528</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.964362237836074</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.9728473318254718</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0.9634856190658576</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.173011980244158</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.2607295560231093</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.2452926140795242</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0.2021581568729919</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0.1188076927802153</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B53" t="n">
+        <v>100</v>
+      </c>
+      <c r="C53" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.3268564326856433</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.3338352333835233</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.9616643961664396</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9500250950025095</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.1882176052487698</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.6737967914438503</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.05802916136608278</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.4828730591442456</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.06450328488950827</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.1878636741479634</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.6769825918762089</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.06277372262773723</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.49929676511955</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.07199032062915911</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.3268564326856433</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.2557802217373614</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.3821098771948312</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.3338352333835233</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.2630783666287241</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.3887526061919966</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.9755110263773528</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.967213601912193</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0.9750234494640845</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0.9674893874123672</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.1758970148789095</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.2565852350664005</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.2446813400068385</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0.2015983704085364</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0.1212380396393157</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B54" t="n">
+        <v>100</v>
+      </c>
+      <c r="C54" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D54" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.3271432327143233</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.3324012332401233</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9603020960302096</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9499533949953395</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.1919716002184599</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.6501293422025129</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.09210654698019319</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.458505978453889</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0856513908345007</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.1847372810675563</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.6572370227959352</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.09749631811487482</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.4618913196894848</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.09529481834425253</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.3271432327143233</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.268586628516606</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.3706287571717017</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.3324012332401233</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.2735077932549431</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.3754830688668918</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.9691155051137409</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.9570062889760479</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.9695298503159625</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0.9593668381562329</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.1730502229685125</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.2580439529014907</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.2447224900522351</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0.2033017729403909</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0.1208815611373722</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B55" t="n">
+        <v>100</v>
+      </c>
+      <c r="C55" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D55" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.3292703329270333</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.3316842331684233</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9499533949953395</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.9503835950383595</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.1709624348779819</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.6772521062864549</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.07115628970775095</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.4924055104203462</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.06073277578653923</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.1672158154859967</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.6795851528384279</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.06856138294755347</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.4992826398852224</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.06287787182587666</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.3292703329270333</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.257136682863263</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.3839325902606607</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.3316842331684233</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.2575078962168685</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.3877267679553615</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.9803427790204564</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.9666772056239441</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.9792300731842876</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0.9656910563151287</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.1719170055607552</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.2590383770266338</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.2453117077289215</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0.2036889379425388</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0.1200439717411508</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B56" t="n">
+        <v>100</v>
+      </c>
+      <c r="C56" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D56" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.3327358332735833</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.3227217322721732</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9451016945101695</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.9637914963791496</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.1866574965612104</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.6511348957372209</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.09884063666732168</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.4877934272300469</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.06871896722939425</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.1827079934747145</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.6407499310725118</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.08713214079630698</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.4777254617892068</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.06581352833638025</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.3327358332735833</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.2689054956686318</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.3785778519285229</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.3227217322721732</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.2594213037017657</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.3694064771141637</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.976982977437553</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.9641401698746316</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.976446552355846</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0.9626172651757895</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.174497319636026</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.2591557521797169</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.244125750783019</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0.2028649355714815</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0.1193562418297566</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B57" t="n">
+        <v>100</v>
+      </c>
+      <c r="C57" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D57" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.3310628331062833</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.3232236323223632</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.9529886952988695</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9650820965082096</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.2015365619426533</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.6600611167700713</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.07454987834549878</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.4915094339622642</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.06422569027611044</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.1931771475544595</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.6402073104200764</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.06945681211041853</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.4830417707961442</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.06197854588796186</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.3310628331062833</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.2639642435465935</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.3817219049041735</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.3232236323223632</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.2557127192545829</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.3732522334150061</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.9804911907035306</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.9654181568622542</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.9805431201986174</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0.9661203086392663</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.1791515237956121</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.2573428679201739</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0.2433373177419643</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0.2022443501328141</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0.1179239404094367</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B58" t="n">
+        <v>100</v>
+      </c>
+      <c r="C58" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D58" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.3312779331277933</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.3216462321646232</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.9484954948495495</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9587724958772496</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.1682500344210381</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.6822464099515229</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.07432829966660129</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.4793808342195439</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.07323434991974317</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.1590077267181781</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.6772366930917327</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.07399883923389437</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.4737402413058907</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.06678486997635934</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.3312779331277933</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.2610315399936985</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.3841373550568571</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.3216462321646232</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.2534550713378917</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.374661714855582</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.9761959883332907</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.9646398834357641</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.9765870131316745</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0.9664509667336793</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.1731564154104314</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.2604406886535096</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.2453789671144821</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0.202825887628863</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0.1181980411927119</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B59" t="n">
+        <v>100</v>
+      </c>
+      <c r="C59" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D59" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.3276451327645133</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.3316842331684233</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.9614970961497096</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.9555459955545995</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.1952549768202891</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.6703988155824928</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.06437052301049946</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.4742560226735947</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.07141440190438406</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.211892797319933</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.6585565882996173</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.06458152331306111</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.4852470671880554</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.07522935779816514</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.3276451327645133</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.2603504696537955</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.3797871661769799</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.3316842331684233</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.2657166029801166</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.3825685545956045</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.9714882284245949</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.9668783775768256</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.9701418852838938</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.9654371292058884</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.1759443115522679</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.2605129654908591</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.2427790167463862</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0.2011682006442779</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0.1195955055662098</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B60" t="n">
+        <v>100</v>
+      </c>
+      <c r="C60" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D60" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.3307282330728233</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.3316125331612533</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.9555220955522096</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9498816949881695</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.1971561389116762</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.6459621596677434</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.09230920149107318</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.468794159208667</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.09488613663603676</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.2034883720930233</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.6479338842975206</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.4786661885980638</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.08862275449101796</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.3307282330728233</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.2736509806594717</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.3734028932817755</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.3316125331612533</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.2724159680661159</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.3760603566540909</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.9748773602069629</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.9611919742917209</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.9756651779685835</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0.9614658732690046</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.1733609233910845</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.2574655788302923</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.2430795130619811</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0.2046445588991519</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0.1214494258174877</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B61" t="n">
+        <v>100</v>
+      </c>
+      <c r="C61" t="n">
+        <v>41841</v>
+      </c>
+      <c r="D61" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3303458330345833</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.3285294328529433</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.9516980951698095</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9505269950526996</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.1935395189003437</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.651012891344383</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.09246808925265516</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.4767897423720764</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.07549800796812749</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.1781773600326931</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.655755894590846</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.09435078379177758</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.4681595521343597</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.07548309178743962</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3303458330345833</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.268751199685911</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3756760547151847</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3285294328529433</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.2654205046764993</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3740200009426433</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.9760279895677979</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.9645847689968984</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.9765720160326902</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.9636689744357536</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.1748284509284144</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.2591740647405158</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.245888310209959</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.2011912196167552</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.1189179545043556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
